--- a/Assets/SceneData/MasterData/Editor/ShopData.xlsx
+++ b/Assets/SceneData/MasterData/Editor/ShopData.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>商品ID</t>
   </si>
@@ -32,6 +32,42 @@
   </si>
   <si>
     <t>i00002</t>
+  </si>
+  <si>
+    <t>p00003</t>
+  </si>
+  <si>
+    <t>i00003</t>
+  </si>
+  <si>
+    <t>p00004</t>
+  </si>
+  <si>
+    <t>i00004</t>
+  </si>
+  <si>
+    <t>p00005</t>
+  </si>
+  <si>
+    <t>i00005</t>
+  </si>
+  <si>
+    <t>p00006</t>
+  </si>
+  <si>
+    <t>i00006</t>
+  </si>
+  <si>
+    <t>p00007</t>
+  </si>
+  <si>
+    <t>i00007</t>
+  </si>
+  <si>
+    <t>p00008</t>
+  </si>
+  <si>
+    <t>i00008</t>
   </si>
 </sst>
 </file>
@@ -110,7 +146,7 @@
         <v>4</v>
       </c>
       <c r="C2" s="1">
-        <v>100.0</v>
+        <v>30000.0</v>
       </c>
     </row>
     <row r="3">
@@ -121,7 +157,73 @@
         <v>6</v>
       </c>
       <c r="C3" s="1">
-        <v>200.0</v>
+        <v>200000.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="1">
+        <v>125000.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="1">
+        <v>88000.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="1">
+        <v>2500000.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="1">
+        <v>5000000.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1500000.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="1">
+        <v>75000.0</v>
       </c>
     </row>
   </sheetData>
